--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/ValueSet-jp-allergyintolerance-vs.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/ValueSet-jp-allergyintolerance-vs.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Include from JFAGY Food Aller" r:id="rId4" sheetId="2"/>
     <sheet name="Include from JFAGY Non Food N" r:id="rId5" sheetId="3"/>
-    <sheet name="Include from JFAGY Medication" r:id="rId6" sheetId="4"/>
+    <sheet name="Include from JP Core JFAGY Me" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
@@ -26,7 +26,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_AllergyIntolerance_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_AllergyIntolerance_VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -113,13 +113,13 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_JfagyFoodAllergen_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_JfagyNonFoodNonMedicationAllergen_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_JfagyMedicationAllergen_CS</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyFoodAllergen_CS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyNonFoodNonMedicationAllergen_CS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_JfagyMedicationAllergen_CS</t>
   </si>
 </sst>
 </file>
